--- a/GameAssets/Tables/develop/FireType.xlsx
+++ b/GameAssets/Tables/develop/FireType.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
-    <sheet name="枪的开火类型&amp;FireType" sheetId="1" r:id="rId1"/>
+    <sheet name="dd" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>主键</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>40000</t>
   </si>
 </sst>
 </file>
@@ -958,13 +961,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -982,6 +985,11 @@
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
